--- a/Auto_v1.3/Model Summary.xlsx
+++ b/Auto_v1.3/Model Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1880" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -673,6 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,7 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -775,7 +775,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -788,7 +788,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11455400" y="863600"/>
+          <a:off x="11023600" y="863600"/>
           <a:ext cx="4860000" cy="3240000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1195,7 +1195,7 @@
       <c r="C9" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="2" t="s">
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1414,28 +1414,28 @@
       <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="16" t="s">
         <v>29</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="F5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="14" t="s">
@@ -1458,7 +1458,7 @@
         <v>2.7559055118110201E-2</v>
       </c>
       <c r="D6" s="18">
-        <v>3.0921213984877898E-3</v>
+        <v>3.3336339421845902E-3</v>
       </c>
       <c r="E6" s="18">
         <v>0</v>
@@ -1481,13 +1481,13 @@
         <v>1.5748031496062999E-2</v>
       </c>
       <c r="D7" s="18">
-        <v>0.11467453687295799</v>
+        <v>0.11746468191772699</v>
       </c>
       <c r="E7" s="18">
-        <v>6.6142341892043302E-3</v>
+        <v>2.6552244099790601E-3</v>
       </c>
       <c r="F7" s="18">
-        <v>9.3118353782011996E-4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>93</v>
@@ -1504,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="18">
-        <v>1.1917973181471699E-2</v>
+        <v>1.008094196774E-2</v>
       </c>
       <c r="E8" s="18">
-        <v>8.6972919768204702E-4</v>
+        <v>7.3150726745390196E-4</v>
       </c>
       <c r="F8" s="18">
-        <v>2.4896036473299701E-4</v>
+        <v>1.24378801639969E-4</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>94</v>
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="18">
-        <v>1.24288046779221E-2</v>
+        <v>8.7533906533037702E-3</v>
       </c>
       <c r="E9" s="18">
-        <v>2.4832136135460403E-4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="18">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="18">
-        <v>0.14757587607516601</v>
+        <v>0.15590743085689301</v>
       </c>
       <c r="E10" s="18">
-        <v>5.6907625535695993E-4</v>
+        <v>9.7405227359053503E-3</v>
       </c>
       <c r="F10" s="18">
-        <v>0</v>
+        <v>2.2324114324980601E-4</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>95</v>
@@ -1596,7 +1596,7 @@
         <v>0.145669291338583</v>
       </c>
       <c r="D12" s="18">
-        <v>9.4772537936095507</v>
+        <v>6.6601314150055</v>
       </c>
       <c r="E12" s="18">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0.145669291338583</v>
       </c>
       <c r="D13" s="18">
-        <v>4.0509844275206399</v>
+        <v>4.079937673521</v>
       </c>
       <c r="E13" s="18">
-        <v>2.3524110152213198E-2</v>
+        <v>3.4465152651152804E-2</v>
       </c>
       <c r="F13" s="18">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>1.5748031496062999E-2</v>
       </c>
       <c r="D14" s="18">
-        <v>9.2319550742041602E-3</v>
+        <v>8.9527331701077587E-3</v>
       </c>
       <c r="E14" s="18">
         <v>0</v>
@@ -1665,13 +1665,13 @@
         <v>1.5748031496062999E-2</v>
       </c>
       <c r="D15" s="18">
-        <v>2.1334608984535999E-2</v>
+        <v>7.0048610548532593E-3</v>
       </c>
       <c r="E15" s="18">
-        <v>9.8233347300566995E-4</v>
+        <v>1.78577369218687E-5</v>
       </c>
       <c r="F15" s="18">
-        <v>1.68681573151554E-4</v>
+        <v>0</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>101</v>
@@ -1688,7 +1688,7 @@
         <v>1.5748031496062999E-2</v>
       </c>
       <c r="D16" s="18">
-        <v>0.101422797980232</v>
+        <v>4.9558555909729296E-2</v>
       </c>
       <c r="E16" s="18">
         <v>0</v>
@@ -1711,13 +1711,13 @@
         <v>1.5748031496062999E-2</v>
       </c>
       <c r="D17" s="18">
-        <v>8.562486243161211E-3</v>
+        <v>4.0033845673042197E-3</v>
       </c>
       <c r="E17" s="18">
-        <v>0</v>
+        <v>1.8445696505628101E-4</v>
       </c>
       <c r="F17" s="18">
-        <v>0</v>
+        <v>7.5273079538438007E-7</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>103</v>
@@ -1734,13 +1734,13 @@
         <v>1.5748031496062999E-2</v>
       </c>
       <c r="D18" s="18">
-        <v>3.6474387174714601E-2</v>
+        <v>3.1398743021922602E-2</v>
       </c>
       <c r="E18" s="18">
-        <v>6.7127724621584796E-3</v>
+        <v>8.93526251951237E-3</v>
       </c>
       <c r="F18" s="18">
-        <v>0</v>
+        <v>1.1883201215841599E-3</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>104</v>
@@ -1757,10 +1757,10 @@
         <v>1.5748031496062999E-2</v>
       </c>
       <c r="D19" s="18">
-        <v>1.27661355358541E-2</v>
+        <v>1.6736978009992E-2</v>
       </c>
       <c r="E19" s="18">
-        <v>0</v>
+        <v>1.01801023478014E-3</v>
       </c>
       <c r="F19" s="18">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1.5748031496062999E-2</v>
       </c>
       <c r="D20" s="18">
-        <v>1.54535712200858E-2</v>
+        <v>9.7308141378296791E-3</v>
       </c>
       <c r="E20" s="18">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>6.2992125984251995E-2</v>
       </c>
       <c r="D21" s="18">
-        <v>3.5945094772901601E-2</v>
+        <v>0.11190599927506099</v>
       </c>
       <c r="E21" s="18">
-        <v>3.4268305871697404E-3</v>
+        <v>4.1205883056286002E-5</v>
       </c>
       <c r="F21" s="18">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>6.2992125984251995E-2</v>
       </c>
       <c r="D22" s="18">
-        <v>3.5508262635436098E-2</v>
+        <v>4.7925974352823107E-2</v>
       </c>
       <c r="E22" s="18">
-        <v>3.6173204704020002E-3</v>
+        <v>0</v>
       </c>
       <c r="F22" s="18">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="18">
-        <v>0.479111975441882</v>
+        <v>0.45051761922876798</v>
       </c>
       <c r="E23" s="18">
         <v>0</v>
@@ -1872,13 +1872,13 @@
         <v>7.8740157480314994E-3</v>
       </c>
       <c r="D24" s="18">
-        <v>0.32964556615986096</v>
+        <v>0.346721741682947</v>
       </c>
       <c r="E24" s="18">
-        <v>0.16560592861046503</v>
+        <v>0.21583774168721298</v>
       </c>
       <c r="F24" s="18">
-        <v>8.9672385022636802E-2</v>
+        <v>0.15351398805202002</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>110</v>
@@ -1895,13 +1895,13 @@
         <v>7.8740157480314994E-3</v>
       </c>
       <c r="D25" s="18">
-        <v>7.6660330941807603E-2</v>
+        <v>6.91846850792327E-2</v>
       </c>
       <c r="E25" s="18">
-        <v>4.0091009055332402E-3</v>
+        <v>3.72802584050296E-3</v>
       </c>
       <c r="F25" s="18">
-        <v>0</v>
+        <v>8.9907270853148988E-4</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>111</v>
@@ -1918,13 +1918,13 @@
         <v>3.9370078740157497E-3</v>
       </c>
       <c r="D26" s="18">
-        <v>9.0868723648428601E-2</v>
+        <v>0.108326873044034</v>
       </c>
       <c r="E26" s="18">
-        <v>2.3208866661769603E-3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="18">
-        <v>4.7204446138855E-4</v>
+        <v>0</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>112</v>
@@ -1941,13 +1941,13 @@
         <v>3.9370078740157497E-3</v>
       </c>
       <c r="D27" s="18">
-        <v>0.161604164810775</v>
+        <v>8.6356321837835301E-2</v>
       </c>
       <c r="E27" s="18">
-        <v>4.2315301822085594E-2</v>
+        <v>6.9282170755254804E-3</v>
       </c>
       <c r="F27" s="18">
-        <v>1.52959576314908E-2</v>
+        <v>8.36495524002113E-4</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>113</v>
@@ -1964,7 +1964,7 @@
         <v>1.5748031496062999E-2</v>
       </c>
       <c r="D28" s="18">
-        <v>8.4477037887197605E-3</v>
+        <v>6.5245650077055493E-3</v>
       </c>
       <c r="E28" s="18">
         <v>0</v>
@@ -1987,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="D29" s="18">
-        <v>0.16502864834710401</v>
+        <v>0.20254460140319899</v>
       </c>
       <c r="E29" s="18">
-        <v>5.0026555307518795E-2</v>
+        <v>3.8825564838367598E-3</v>
       </c>
       <c r="F29" s="18">
-        <v>2.1360328218787999E-2</v>
+        <v>3.8605716776160396E-4</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>115</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="18">
-        <v>7.96033072406995E-2</v>
+        <v>8.0258001757276404E-2</v>
       </c>
       <c r="E30" s="18">
-        <v>2.2202185686676303E-3</v>
+        <v>2.7126755811734699E-3</v>
       </c>
       <c r="F30" s="18">
-        <v>9.8302572117527098E-4</v>
+        <v>8.9984039938904208E-4</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>116</v>
@@ -2033,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="18">
-        <v>7.14004774334982E-2</v>
+        <v>6.4240967422882503E-2</v>
       </c>
       <c r="E31" s="18">
-        <v>5.1250569533836899E-3</v>
+        <v>3.89229340847607E-3</v>
       </c>
       <c r="F31" s="18">
-        <v>2.0377614925960199E-3</v>
+        <v>1.2635999094099701E-3</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>116</v>
@@ -2056,13 +2056,13 @@
         <v>0.22834645669291301</v>
       </c>
       <c r="D32" s="18">
-        <v>5.9739478462552606E-2</v>
+        <v>6.7625498602583406E-2</v>
       </c>
       <c r="E32" s="18">
-        <v>3.7853515249562097E-3</v>
+        <v>1.2768607943080702E-3</v>
       </c>
       <c r="F32" s="18">
-        <v>2.8873985127773801E-4</v>
+        <v>0</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>117</v>
@@ -2079,13 +2079,13 @@
         <v>0</v>
       </c>
       <c r="D33" s="18">
-        <v>6.8127193679519804E-2</v>
+        <v>5.1698693375179197E-2</v>
       </c>
       <c r="E33" s="18">
-        <v>1.3413241083385899E-3</v>
+        <v>1.2702068287770698E-3</v>
       </c>
       <c r="F33" s="18">
-        <v>6.59129977246613E-4</v>
+        <v>5.8811047245019299E-4</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>116</v>
@@ -2102,13 +2102,13 @@
         <v>3.9370078740157497E-3</v>
       </c>
       <c r="D34" s="18">
-        <v>2.66688960574545E-2</v>
+        <v>3.2414619596552001E-2</v>
       </c>
       <c r="E34" s="18">
-        <v>1.26407511600009E-2</v>
+        <v>4.4125883311819502E-3</v>
       </c>
       <c r="F34" s="18">
-        <v>7.6515599049658102E-3</v>
+        <v>3.18731030262304E-4</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>139</v>
@@ -2139,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2174,10 +2174,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
